--- a/document/00.교육일정.xlsx
+++ b/document/00.교육일정.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17160" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="교육일정(전반부)" sheetId="1" r:id="rId1"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>numpy, pandas, matplotlib, seaborn 라이브러리 활용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>list, tuple, dictionary와 기초 시각화 도구를 활용한 데이터 분석 실습</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,6 +326,10 @@
   </si>
   <si>
     <t>머신러닝 알고리즘 활용 예측 모델 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numpy, pandas, matplotlib, seaborn 라이브러리 활용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -805,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -820,19 +820,19 @@
   <sheetData>
     <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -849,15 +849,15 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2">
         <v>16</v>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -874,7 +874,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2">
         <v>24</v>
@@ -883,15 +883,15 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D8" s="2">
         <v>16</v>
@@ -900,15 +900,15 @@
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="43.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2">
         <v>16</v>
@@ -917,15 +917,15 @@
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D10" s="2">
         <v>24</v>
@@ -934,15 +934,15 @@
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D11" s="2">
         <v>8</v>
@@ -951,15 +951,15 @@
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D12" s="2">
         <v>8</v>
@@ -968,15 +968,15 @@
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="43.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D13" s="2">
         <v>16</v>
@@ -985,32 +985,32 @@
         <v>3</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="62.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D14" s="2">
         <v>80</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2">
         <v>16</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="2">
         <v>16</v>
@@ -1034,15 +1034,15 @@
         <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -1052,25 +1052,25 @@
     </row>
     <row r="18" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="8">
         <v>52</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
       <c r="C19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="10"/>
@@ -1079,7 +1079,7 @@
     <row r="20" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="2">
         <f>SUM(D5:D19)</f>
@@ -1120,74 +1120,74 @@
   <sheetData>
     <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2">
         <v>64</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="9">
         <v>64</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -1195,61 +1195,61 @@
     </row>
     <row r="8" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2">
         <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2">
         <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2">
         <v>40</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -1259,25 +1259,25 @@
     </row>
     <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="8">
         <v>256</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="12"/>
       <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="10"/>
@@ -1286,7 +1286,7 @@
     <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2">
         <f>SUM(D4:D13)</f>

--- a/document/00.교육일정.xlsx
+++ b/document/00.교육일정.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17160" windowHeight="8445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17160" windowHeight="8445" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="교육일정(전반부)" sheetId="1" r:id="rId1"/>
@@ -805,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1105,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
